--- a/IE_models/Castledawson_Bridge_IEM_revB.xlsx
+++ b/IE_models/Castledawson_Bridge_IEM_revB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F10AA38-1140-8144-B63D-23D9EA41F336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0739F88-0CE3-4C42-A022-7BB0A281835D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
@@ -2451,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/IE_models/Castledawson_Bridge_IEM_revB.xlsx
+++ b/IE_models/Castledawson_Bridge_IEM_revB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0739F88-0CE3-4C42-A022-7BB0A281835D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6350F4E-D5C9-9247-9323-C432A5A48B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="221">
   <si>
     <t>Element ID</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
   </si>
   <si>
     <t>Joint ID</t>
@@ -860,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -945,6 +942,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,9 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD241"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1343,1034 +1339,1034 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H30" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H32" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2388,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2399,47 +2395,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2469,38 +2465,38 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="5"/>
       <c r="L1" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="27"/>
       <c r="W1" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X1" s="10">
         <v>0</v>
@@ -2509,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -2517,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2">
         <f>(TAN(-6)*D2)+X2</f>
@@ -2531,17 +2527,17 @@
         <v>20.349</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
       <c r="W2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X2" s="12">
         <v>0.7</v>
@@ -2550,7 +2546,7 @@
         <v>1.593</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2558,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2">
         <f>(TAN(-6)*D3)+X2</f>
@@ -2573,17 +2569,17 @@
         <v>21.849</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" s="28"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="30"/>
       <c r="W3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X3" s="12">
         <v>1.4</v>
@@ -2592,7 +2588,7 @@
         <v>1.62</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2600,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <f>(TAN(-6)*D4)+X2</f>
@@ -2615,17 +2611,17 @@
         <v>21.849</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
       <c r="O4" s="33"/>
       <c r="W4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X4" s="12">
         <v>12.97</v>
@@ -2634,7 +2630,7 @@
         <v>4.6749999999999998</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <f>(TAN(-6)*D5)+X2</f>
@@ -2657,19 +2653,19 @@
         <v>21.849</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="18"/>
       <c r="W5" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X5" s="12">
         <v>24.54</v>
@@ -2678,7 +2674,7 @@
         <v>4.6849999999999996</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2686,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <f>(TAN(-6)*D6)+X2</f>
@@ -2701,17 +2697,17 @@
         <v>21.849</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="21"/>
       <c r="W6" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X6" s="12">
         <v>26.04</v>
@@ -2720,7 +2716,7 @@
         <v>6.2175000000000002</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -2728,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2">
         <f>(TAN(-6)*D7)+X2</f>
@@ -2743,17 +2739,17 @@
         <v>25.923999999999999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
       <c r="W7" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X7" s="12">
         <v>27.37</v>
@@ -2762,7 +2758,7 @@
         <v>7.75</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -2770,7 +2766,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2">
         <f>(TAN(-6)*D8)+X2</f>
@@ -2785,17 +2781,17 @@
         <v>25.923999999999999</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="21"/>
       <c r="W8" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X8" s="12">
         <v>27.54</v>
@@ -2804,7 +2800,7 @@
         <v>7.76</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2812,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2">
         <f>(TAN(-6)*D9)+X2</f>
@@ -2827,17 +2823,17 @@
         <v>25.923999999999999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
       <c r="W9" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9" s="12">
         <v>40.44</v>
@@ -2846,7 +2842,7 @@
         <v>10.815</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2854,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2">
         <f>(TAN(-6)*D10)+X2</f>
@@ -2869,13 +2865,13 @@
         <v>25.923999999999999</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X10" s="12">
         <v>53.34</v>
@@ -2884,7 +2880,7 @@
         <v>10.84</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2892,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <f>(TAN(-6)*D11)+X2</f>
@@ -2907,13 +2903,13 @@
         <v>28.274000000000001</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X11" s="12">
         <v>54.04</v>
@@ -2922,7 +2918,7 @@
         <v>12.435</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2930,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2">
         <f>(TAN(-6)*D12)+X2</f>
@@ -2945,13 +2941,13 @@
         <v>29.749000000000002</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X12" s="14">
         <v>54.74</v>
@@ -2962,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2">
         <f>(TAN(-6)*D13)+X3</f>
@@ -2977,10 +2973,10 @@
         <v>29.048999999999999</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -2988,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2">
         <f>(TAN(-6)*D14)+X3</f>
@@ -3003,10 +2999,10 @@
         <v>29.048999999999999</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -3014,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2">
         <f>(TAN(-6)*D15)+X3</f>
@@ -3029,10 +3025,10 @@
         <v>29.048999999999999</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -3040,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2">
         <f>(TAN(-6)*D16)+X3</f>
@@ -3055,10 +3051,10 @@
         <v>29.048999999999999</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3066,7 +3062,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2">
         <f>(TAN(-6)*D17)+X4</f>
@@ -3081,10 +3077,10 @@
         <v>30.044499999999996</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3092,7 +3088,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2">
         <f>(TAN(-6)*D18)+X4</f>
@@ -3107,10 +3103,10 @@
         <v>30.044499999999996</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3118,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2">
         <f>(TAN(-6)*D19)+X4</f>
@@ -3133,10 +3129,10 @@
         <v>30.044499999999996</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3144,7 +3140,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2">
         <f>(TAN(-6)*D20)+X4</f>
@@ -3159,10 +3155,10 @@
         <v>30.044499999999996</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3170,7 +3166,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2">
         <f>(TAN(-6)*D21)+X5</f>
@@ -3185,10 +3181,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3196,7 +3192,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2">
         <f>(TAN(-6)*D22)+X5</f>
@@ -3211,10 +3207,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3222,7 +3218,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2">
         <f>(TAN(-6)*D23)+X5</f>
@@ -3237,10 +3233,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3248,7 +3244,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2">
         <f>(TAN(-6)*D24)+X5</f>
@@ -3263,10 +3259,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3274,7 +3270,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2">
         <f>(TAN(-6)*D25)+X6</f>
@@ -3288,10 +3284,10 @@
         <v>20.477</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3299,7 +3295,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2">
         <f>(TAN(-6)*D26)+X6</f>
@@ -3314,10 +3310,10 @@
         <v>21.477</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3325,7 +3321,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2">
         <f>(TAN(-6)*D27)+X6</f>
@@ -3340,10 +3336,10 @@
         <v>21.477</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3351,7 +3347,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2">
         <f>(TAN(-6)*D28)+X6</f>
@@ -3366,10 +3362,10 @@
         <v>21.477</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3377,7 +3373,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="2">
         <f>(TAN(-6)*D29)+X6</f>
@@ -3392,10 +3388,10 @@
         <v>21.477</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,7 +3399,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2">
         <f>(TAN(-6)*D30)+X6</f>
@@ -3418,10 +3414,10 @@
         <v>28.29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3429,7 +3425,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="2">
         <f>(TAN(-6)*D31)+X6</f>
@@ -3444,10 +3440,10 @@
         <v>28.29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3455,7 +3451,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2">
         <f>(TAN(-6)*D32)+X6</f>
@@ -3470,10 +3466,10 @@
         <v>28.29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3481,7 +3477,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="2">
         <f>(TAN(-6)*D33)+X6</f>
@@ -3496,10 +3492,10 @@
         <v>28.29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3507,7 +3503,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2">
         <f>(TAN(-6)*D34)+X6</f>
@@ -3522,10 +3518,10 @@
         <v>28.864999999999998</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3533,7 +3529,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="2">
         <f>(TAN(-6)*D35)+X6</f>
@@ -3548,10 +3544,10 @@
         <v>30.34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3559,7 +3555,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" s="2">
         <f>(TAN(-6)*D36)+X8</f>
@@ -3574,10 +3570,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3585,7 +3581,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" s="2">
         <f>(TAN(-6)*D37)+X8</f>
@@ -3600,10 +3596,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3611,7 +3607,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2">
         <f>(TAN(-6)*D38)+X8</f>
@@ -3626,10 +3622,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3637,7 +3633,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="2">
         <f>(TAN(-6)*D39)+X8</f>
@@ -3652,10 +3648,10 @@
         <v>29.639999999999997</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3663,7 +3659,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2">
         <f>(TAN(-6)*D40)+X9</f>
@@ -3678,10 +3674,10 @@
         <v>30.561499999999999</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3689,7 +3685,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2">
         <f>(TAN(-6)*D41)+X9</f>
@@ -3704,10 +3700,10 @@
         <v>30.561499999999999</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3715,7 +3711,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2">
         <f>(TAN(-6)*D42)+X9</f>
@@ -3730,10 +3726,10 @@
         <v>30.561499999999999</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3741,7 +3737,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="2">
         <f>(TAN(-6)*D43)+X9</f>
@@ -3756,10 +3752,10 @@
         <v>30.561499999999999</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3767,7 +3763,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2">
         <f>(TAN(-6)*D44)+X10</f>
@@ -3782,10 +3778,10 @@
         <v>30.083000000000002</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3793,7 +3789,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2">
         <f>(TAN(-6)*D45)+X10</f>
@@ -3808,10 +3804,10 @@
         <v>30.083000000000002</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3819,7 +3815,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" s="2">
         <f>(TAN(-6)*D46)+X10</f>
@@ -3834,10 +3830,10 @@
         <v>30.083000000000002</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3845,7 +3841,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2">
         <f>(TAN(-6)*D47)+X10</f>
@@ -3860,10 +3856,10 @@
         <v>30.083000000000002</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3871,7 +3867,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="2">
         <f>(TAN(-6)*D48)+X11</f>
@@ -3885,10 +3881,10 @@
         <v>21.382999999999999</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3896,7 +3892,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2">
         <f>(TAN(-6)*D49)+X11</f>
@@ -3911,10 +3907,10 @@
         <v>22.882999999999999</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3922,7 +3918,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2">
         <f>(TAN(-6)*D50)+X11</f>
@@ -3937,10 +3933,10 @@
         <v>22.882999999999999</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3948,7 +3944,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="2">
         <f>(TAN(-6)*D51)+X11</f>
@@ -3963,10 +3959,10 @@
         <v>22.882999999999999</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3974,7 +3970,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2">
         <f>(TAN(-6)*D52)+X11</f>
@@ -3989,10 +3985,10 @@
         <v>22.882999999999999</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -4000,7 +3996,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2">
         <f>(TAN(-6)*D53)+X11</f>
@@ -4015,10 +4011,10 @@
         <v>26.957999999999998</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -4026,7 +4022,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2">
         <f>(TAN(-6)*D54)+X11</f>
@@ -4041,10 +4037,10 @@
         <v>26.957999999999998</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4052,7 +4048,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2">
         <f>(TAN(-6)*D55)+X11</f>
@@ -4067,10 +4063,10 @@
         <v>26.957999999999998</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -4078,7 +4074,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2">
         <f>(TAN(-6)*D56)+X11</f>
@@ -4093,10 +4089,10 @@
         <v>26.957999999999998</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4104,7 +4100,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2">
         <f>(TAN(-6)*D57)+X11</f>
@@ -4119,10 +4115,10 @@
         <v>29.308</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4130,7 +4126,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2">
         <f>(TAN(-6)*D58)+X11</f>
@@ -4145,10 +4141,10 @@
         <v>30.783000000000001</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4156,7 +4152,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2">
         <f>(TAN(-6)*D59)+X7</f>
@@ -4171,10 +4167,10 @@
         <v>30.983000000000001</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -4182,7 +4178,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2">
         <f>(TAN(-6)*D60)+X7</f>
@@ -4197,10 +4193,10 @@
         <v>30.983000000000001</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4208,7 +4204,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C61" s="2">
         <f>(TAN(-6)*D61)+X1</f>
@@ -4223,10 +4219,10 @@
         <v>30.883000000000003</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4234,7 +4230,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2">
         <f>(TAN(-6)*D62)+X12</f>
@@ -4249,10 +4245,10 @@
         <v>30.883000000000003</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/IE_models/Castledawson_Bridge_IEM_revB.xlsx
+++ b/IE_models/Castledawson_Bridge_IEM_revB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6350F4E-D5C9-9247-9323-C432A5A48B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B6E7E-D763-E04B-9B44-392B6C10FE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="217">
   <si>
     <t>Element ID</t>
   </si>
@@ -566,22 +566,7 @@
     <t>CC, DD</t>
   </si>
   <si>
-    <t>Expansion Joint</t>
-  </si>
-  <si>
-    <t>DD, 2</t>
-  </si>
-  <si>
-    <t>DD, 3</t>
-  </si>
-  <si>
     <t>Expansion</t>
-  </si>
-  <si>
-    <t>Road (North)</t>
-  </si>
-  <si>
-    <t>Road (South)</t>
   </si>
   <si>
     <t>Length: 54.74m,
@@ -727,6 +712,9 @@
   </si>
   <si>
     <t>BB, Z</t>
+  </si>
+  <si>
+    <t>DD, 1</t>
   </si>
 </sst>
 </file>
@@ -857,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,15 +864,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,7 +928,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1424,7 +1409,7 @@
         <v>92</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1610,7 +1595,7 @@
         <v>94</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1796,7 +1781,7 @@
         <v>89</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1944,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>97</v>
@@ -1976,7 +1961,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>98</v>
@@ -2008,7 +1993,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>98</v>
@@ -2040,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>98</v>
@@ -2072,7 +2057,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>98</v>
@@ -2104,7 +2089,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>90</v>
@@ -2136,7 +2121,7 @@
         <v>55</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>100</v>
@@ -2168,7 +2153,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>100</v>
@@ -2200,7 +2185,7 @@
         <v>55</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>100</v>
@@ -2232,7 +2217,7 @@
         <v>55</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>100</v>
@@ -2264,7 +2249,7 @@
         <v>23</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>96</v>
@@ -2296,7 +2281,7 @@
         <v>105</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>108</v>
@@ -2328,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>109</v>
@@ -2360,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>109</v>
@@ -2382,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,13 +2380,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2414,28 +2399,6 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2447,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2490,22 +2453,22 @@
       </c>
       <c r="I1" s="5"/>
       <c r="L1" s="25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="27"/>
-      <c r="W1" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="10">
+      <c r="W1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X1" s="9">
         <v>0</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="8">
         <v>0</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>179</v>
+      <c r="Z1" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -2536,17 +2499,17 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
-      <c r="W2" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="X2" s="12">
+      <c r="W2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="X2" s="11">
         <v>0.7</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="10">
         <v>1.593</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>182</v>
+      <c r="Z2" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2578,17 +2541,17 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="30"/>
-      <c r="W3" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="X3" s="12">
+      <c r="W3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" s="11">
         <v>1.4</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <v>1.62</v>
       </c>
-      <c r="Z3" s="12" t="s">
-        <v>183</v>
+      <c r="Z3" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2620,17 +2583,17 @@
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
       <c r="O4" s="33"/>
-      <c r="W4" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="X4" s="12">
+      <c r="W4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="X4" s="11">
         <v>12.97</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <v>4.6749999999999998</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>180</v>
+      <c r="Z4" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2659,22 +2622,22 @@
         <v>122</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="18"/>
-      <c r="W5" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="X5" s="12">
+      <c r="W5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="X5" s="11">
         <v>24.54</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <v>4.6849999999999996</v>
       </c>
-      <c r="Z5" s="12" t="s">
-        <v>181</v>
+      <c r="Z5" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2706,17 +2669,17 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="21"/>
-      <c r="W6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="X6" s="12">
+      <c r="W6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="X6" s="11">
         <v>26.04</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="10">
         <v>6.2175000000000002</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>184</v>
+      <c r="Z6" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -2748,17 +2711,17 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
-      <c r="W7" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="X7" s="12">
+      <c r="W7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="X7" s="11">
         <v>27.37</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="10">
         <v>7.75</v>
       </c>
-      <c r="Z7" s="12" t="s">
-        <v>185</v>
+      <c r="Z7" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -2790,17 +2753,17 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="21"/>
-      <c r="W8" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="X8" s="12">
+      <c r="W8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="X8" s="11">
         <v>27.54</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="10">
         <v>7.76</v>
       </c>
-      <c r="Z8" s="12" t="s">
-        <v>186</v>
+      <c r="Z8" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2832,17 +2795,17 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
-      <c r="W9" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="X9" s="12">
+      <c r="W9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="X9" s="11">
         <v>40.44</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <v>10.815</v>
       </c>
-      <c r="Z9" s="12" t="s">
-        <v>187</v>
+      <c r="Z9" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2870,17 +2833,17 @@
       <c r="I10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="X10" s="12">
+      <c r="W10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="X10" s="11">
         <v>53.34</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <v>10.84</v>
       </c>
-      <c r="Z10" s="12" t="s">
-        <v>188</v>
+      <c r="Z10" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2908,17 +2871,17 @@
       <c r="I11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="X11" s="12">
+      <c r="W11" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="X11" s="11">
         <v>54.04</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="12">
         <v>12.435</v>
       </c>
-      <c r="Z11" s="14" t="s">
-        <v>189</v>
+      <c r="Z11" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2946,10 +2909,10 @@
       <c r="I12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="X12" s="14">
+      <c r="W12" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="X12" s="13">
         <v>54.74</v>
       </c>
     </row>
@@ -3555,7 +3518,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2">
         <f>(TAN(-6)*D36)+X8</f>
@@ -3581,7 +3544,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C37" s="2">
         <f>(TAN(-6)*D37)+X8</f>
@@ -3607,7 +3570,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C38" s="2">
         <f>(TAN(-6)*D38)+X8</f>
@@ -3633,7 +3596,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C39" s="2">
         <f>(TAN(-6)*D39)+X8</f>
@@ -4152,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2">
         <f>(TAN(-6)*D59)+X7</f>
@@ -4170,7 +4133,7 @@
         <v>115</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -4178,7 +4141,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2">
         <f>(TAN(-6)*D60)+X7</f>
@@ -4196,7 +4159,7 @@
         <v>115</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4204,7 +4167,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C61" s="2">
         <f>(TAN(-6)*D61)+X1</f>
@@ -4219,10 +4182,10 @@
         <v>30.883000000000003</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4230,7 +4193,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C62" s="2">
         <f>(TAN(-6)*D62)+X12</f>
@@ -4245,10 +4208,10 @@
         <v>30.883000000000003</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/IE_models/Castledawson_Bridge_IEM_revB.xlsx
+++ b/IE_models/Castledawson_Bridge_IEM_revB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B6E7E-D763-E04B-9B44-392B6C10FE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA56F2-8C0D-C248-A58E-F13A86E97B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14320" windowHeight="7700" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1299,9 +1299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="6"/>
@@ -1316,7 +1316,7 @@
     <col min="11" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="51">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="51">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="51">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="51">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="51">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="51">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="51">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="51">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="51">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="51">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="51">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="51">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="51">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="51">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="51">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="68">
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="51">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="51">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="51">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="51">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="85">
       <c r="A25" s="6" t="s">
         <v>73</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="51">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="51">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="51">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="68">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="85">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="68">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="68">
       <c r="A33" s="6" t="s">
         <v>102</v>
       </c>
@@ -2373,13 +2373,13 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2410,11 +2410,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
     <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
@@ -2426,7 +2426,7 @@
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="17" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="17" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="17" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="17" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4236,7 +4236,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/IE_models/Castledawson_Bridge_IEM_revB.xlsx
+++ b/IE_models/Castledawson_Bridge_IEM_revB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA56F2-8C0D-C248-A58E-F13A86E97B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B20C9B2-183E-1A4E-8D21-F88009CAF02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14320" windowHeight="7700" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="219">
   <si>
     <t>Element ID</t>
   </si>
@@ -714,7 +714,13 @@
     <t>BB, Z</t>
   </si>
   <si>
-    <t>DD, 1</t>
+    <t>DD, 2</t>
+  </si>
+  <si>
+    <t>DD, 3</t>
+  </si>
+  <si>
+    <t>Expansion joint</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -2367,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2401,6 +2407,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2410,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -4167,7 +4195,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2">
         <f>(TAN(-6)*D61)+X1</f>

--- a/IE_models/Castledawson_Bridge_IEM_revB.xlsx
+++ b/IE_models/Castledawson_Bridge_IEM_revB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B20C9B2-183E-1A4E-8D21-F88009CAF02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8416A9-A7AB-F04C-845F-C9A4722F5D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1305,9 +1305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="6"/>
@@ -1322,7 +1322,7 @@
     <col min="11" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51">
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51">
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51">
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="51">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="51">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51">
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51">
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="51">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="51">
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="51">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="51">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="51">
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="51">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="68">
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51">
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="85">
+    <row r="25" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>73</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51">
+    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51">
+    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="51">
+    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51">
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="68">
+    <row r="30" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="85">
+    <row r="31" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="68">
+    <row r="32" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="68">
+    <row r="33" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>102</v>
       </c>
@@ -2375,17 +2375,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>218</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>218</v>
       </c>
@@ -2442,7 +2442,7 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
     <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
@@ -2454,7 +2454,7 @@
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17" thickBot="1">
+    <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="17" thickBot="1">
+    <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1">
+    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17" thickBot="1">
+    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4264,7 +4264,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
